--- a/MachineBookExtract/output/A Christmas Carol by Charles Dickens.txt_LOCAL.xlsx
+++ b/MachineBookExtract/output/A Christmas Carol by Charles Dickens.txt_LOCAL.xlsx
@@ -505,19 +505,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6469</v>
+        <v>6467</v>
       </c>
       <c r="C2" t="n">
-        <v>36023</v>
+        <v>36014</v>
       </c>
       <c r="D2" t="n">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E2" t="n">
-        <v>79.2</v>
+        <v>79.36</v>
       </c>
       <c r="F2" t="n">
-        <v>14.78</v>
+        <v>14.81</v>
       </c>
       <c r="G2" t="n">
         <v>172</v>
@@ -529,10 +529,10 @@
         <v>147</v>
       </c>
       <c r="J2" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="K2" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L2" t="n">
         <v>589</v>
@@ -542,7 +542,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>['Marley', 'Scrooge', 'Weather', 'Speak', 'Star', 'Ebenezer']</t>
+          <t>['Marley', 'Weather', 'Scrooge', 'Star', 'Ebenezer', 'Speak']</t>
         </is>
       </c>
     </row>
@@ -588,7 +588,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>['Scrooge', 'Ebenezer', 'Groom', 'Welch', 'Dick', 'Fezziwig']</t>
+          <t>['Groom', 'Scrooge', 'Ebenezer', 'Fezziwig', 'Welch', 'Dick']</t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>['Scrooge', 'Uncle']</t>
+          <t>['Grocer', 'Scrooge', 'Uncle', 'Cratchit', 'Gale']</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>['Scrooge', 'Speak']</t>
+          <t>['Scrooge', 'Cratchit', 'Speak']</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>['Dickens', 'Marley', 'Scrooge']</t>
+          <t>['Marley', 'Scrooge', 'Cratchit', 'Dickens']</t>
         </is>
       </c>
     </row>
